--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hegar\sqabatch23\Appium\Swaglabs\swaglabs-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854CFCE2-A365-4F1E-8C32-23D4215C3BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A2BA2A-5AE5-4176-99D0-1F3D7FF72546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Nomor Test Case</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>1. Masukkan username valid. 2. Masukkan password valid. \n3. Klik tombol 'Login'.</t>
+  </si>
+  <si>
+    <t>Verifikasi Produk</t>
+  </si>
+  <si>
+    <t>Memastikan jumlah produk berjumlah 6</t>
+  </si>
+  <si>
+    <t>Jumlah produk yang ditampilkan di halaman ada 6</t>
+  </si>
+  <si>
+    <t>TC-0007</t>
   </si>
 </sst>
 </file>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,27 +739,56 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>42</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>44</v>
       </c>
     </row>
